--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4062.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4062.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jasprit Jasbirsingh Bumrah</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>23/01/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>11/06/2016</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3895</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>13/06/2016</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3897</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -636,7 +698,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>15/06/2016</t>
@@ -644,7 +705,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3899</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -684,7 +745,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>16/10/2016</t>
@@ -692,7 +752,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +804,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -784,7 +844,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>23/10/2016</t>
@@ -792,7 +851,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -832,7 +891,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>29/10/2016</t>
@@ -840,7 +898,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -880,7 +938,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -888,7 +945,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -928,7 +985,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>19/01/2017</t>
@@ -936,7 +992,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +1044,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1028,7 +1084,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>04/06/2017</t>
@@ -1036,7 +1091,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1076,7 +1131,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>08/06/2017</t>
@@ -1084,7 +1138,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1124,7 +1178,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>11/06/2017</t>
@@ -1132,7 +1185,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1172,7 +1225,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -1180,7 +1232,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1232,7 +1284,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1272,7 +1324,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>20/08/2017</t>
@@ -1280,7 +1331,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1320,7 +1371,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>24/08/2017</t>
@@ -1328,7 +1378,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1368,7 +1418,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>27/08/2017</t>
@@ -1376,7 +1425,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1416,7 +1465,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>31/08/2017</t>
@@ -1424,7 +1472,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1464,7 +1512,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>03/09/2017</t>
@@ -1472,7 +1519,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1512,7 +1559,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>17/09/2017</t>
@@ -1520,7 +1566,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1572,7 +1618,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1612,7 +1658,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>24/09/2017</t>
@@ -1620,7 +1665,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1660,7 +1705,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>01/10/2017</t>
@@ -1668,7 +1712,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1708,7 +1752,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -1716,7 +1759,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1756,7 +1799,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>25/10/2017</t>
@@ -1764,7 +1806,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1804,7 +1846,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>29/10/2017</t>
@@ -1812,7 +1853,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1864,7 +1905,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1904,7 +1945,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>13/12/2017</t>
@@ -1912,7 +1952,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1952,7 +1992,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>17/12/2017</t>
@@ -1960,7 +1999,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2000,7 +2039,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>01/02/2018</t>
@@ -2008,7 +2046,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2048,7 +2086,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>04/02/2018</t>
@@ -2056,7 +2093,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2096,7 +2133,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>07/02/2018</t>
@@ -2104,7 +2140,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2144,7 +2180,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>10/02/2018</t>
@@ -2152,7 +2187,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2192,7 +2227,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -2200,7 +2234,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2240,7 +2274,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -2248,7 +2281,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2288,7 +2321,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>19/09/2018</t>
@@ -2296,7 +2328,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2336,7 +2368,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -2344,7 +2375,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2384,7 +2415,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -2392,7 +2422,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2432,7 +2462,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>28/09/2018</t>
@@ -2440,7 +2469,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2492,7 +2521,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2532,7 +2561,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>29/10/2018</t>
@@ -2540,7 +2568,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2580,7 +2608,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>01/11/2018</t>
@@ -2588,7 +2615,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2628,7 +2655,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -2636,7 +2662,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2688,7 +2714,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2740,7 +2766,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2792,7 +2818,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2844,7 +2870,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2884,7 +2910,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>05/06/2019</t>
@@ -2892,7 +2917,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2932,7 +2957,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>09/06/2019</t>
@@ -2940,7 +2964,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2980,7 +3004,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>16/06/2019</t>
@@ -2988,7 +3011,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3040,7 +3063,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3080,7 +3103,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>27/06/2019</t>
@@ -3088,7 +3110,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3128,7 +3150,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>30/06/2019</t>
@@ -3136,7 +3157,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3188,7 +3209,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3228,7 +3249,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>06/07/2019</t>
@@ -3236,7 +3256,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3288,7 +3308,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3340,7 +3360,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3380,7 +3400,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>17/01/2020</t>
@@ -3388,7 +3407,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3428,7 +3447,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>19/01/2020</t>
@@ -3436,7 +3454,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3476,7 +3494,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>05/02/2020</t>
@@ -3484,7 +3501,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3536,7 +3553,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3576,7 +3593,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>11/02/2020</t>
@@ -3584,7 +3600,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3636,7 +3652,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3688,7 +3704,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3728,7 +3744,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>02/12/2020</t>
@@ -3736,7 +3751,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3788,7 +3803,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3828,7 +3843,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -3836,7 +3850,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3888,7 +3902,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3928,7 +3942,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>12/07/2022</t>
@@ -3936,7 +3949,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3988,7 +4001,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4027,7 +4040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4049,7 +4062,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4086,7 +4099,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4123,7 +4136,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3895</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4160,7 +4173,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3897</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4197,7 +4210,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3899</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4234,7 +4247,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4271,7 +4284,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4308,7 +4321,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4345,7 +4358,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4382,7 +4395,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4419,7 +4432,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4456,7 +4469,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4493,7 +4506,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4530,7 +4543,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4567,7 +4580,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4604,7 +4617,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4641,7 +4654,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4678,7 +4691,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4715,7 +4728,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4752,7 +4765,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4789,7 +4802,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4826,7 +4839,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4863,7 +4876,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4900,7 +4913,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4937,7 +4950,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4974,7 +4987,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5011,7 +5024,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5048,7 +5061,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5085,7 +5098,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5122,7 +5135,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5159,7 +5172,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5196,7 +5209,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5233,7 +5246,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5270,7 +5283,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5307,7 +5320,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5344,7 +5357,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5381,7 +5394,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5418,7 +5431,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5455,7 +5468,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5492,7 +5505,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5529,7 +5542,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5566,7 +5579,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5603,7 +5616,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5640,7 +5653,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5677,7 +5690,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5714,7 +5727,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5751,7 +5764,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5788,7 +5801,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5825,7 +5838,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5862,7 +5875,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5899,7 +5912,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5936,7 +5949,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5973,7 +5986,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6010,7 +6023,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6047,7 +6060,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6084,7 +6097,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6121,7 +6134,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6158,7 +6171,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6195,7 +6208,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6232,7 +6245,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6269,7 +6282,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6306,7 +6319,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6343,7 +6356,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6380,7 +6393,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6417,7 +6430,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6454,7 +6467,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6491,7 +6504,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6528,7 +6541,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6565,7 +6578,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6602,7 +6615,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6639,7 +6652,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6676,7 +6689,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -6713,7 +6726,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -6741,6 +6754,431 @@
           <t>2/49</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.24%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4062.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4062.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6812,15 +6813,357 @@
           <t>4332</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.24%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6828,15 +7171,14 @@
           <t>4338</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -6846,23 +7188,14 @@
           <t>4342</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>10</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6872,15 +7205,14 @@
           <t>4345</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -6890,13 +7222,14 @@
           <t>4350</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -6906,25 +7239,8 @@
           <t>4353</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6932,17 +7248,12 @@
           <t>4398</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>11</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6950,13 +7261,14 @@
           <t>4399</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6966,15 +7278,12 @@
           <t>4400</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6982,17 +7291,8 @@
           <t>4402</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7002,13 +7302,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7016,15 +7309,12 @@
           <t>4410</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7032,17 +7322,8 @@
           <t>4435</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7052,13 +7333,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7066,15 +7340,14 @@
           <t>4437</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7084,29 +7357,8 @@
           <t>4524</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.24%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7114,15 +7366,14 @@
           <t>4526</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7132,27 +7383,14 @@
           <t>4529</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.37%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7162,11 +7400,16 @@
           <t>4609</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7174,11 +7417,16 @@
           <t>4613</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4062.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4062.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6813,6 +6812,10 @@
           <t>4332</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6828,6 +6831,9 @@
       <c r="B3" t="n">
         <v>11</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6853,6 +6859,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6868,6 +6875,9 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6880,6 +6890,10 @@
           <t>4350</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6905,6 +6919,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6920,6 +6935,9 @@
       <c r="B8" t="n">
         <v>11</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6932,6 +6950,10 @@
           <t>4399</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6944,6 +6966,10 @@
           <t>4400</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6959,6 +6985,9 @@
       <c r="B11" t="n">
         <v>11</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6971,6 +7000,10 @@
           <t>4406</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6983,6 +7016,10 @@
           <t>4410</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6998,6 +7035,9 @@
       <c r="B14" t="n">
         <v>10</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7010,6 +7050,10 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7025,6 +7069,9 @@
       <c r="B16" t="n">
         <v>10</v>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7070,6 +7117,9 @@
       <c r="B18" t="n">
         <v>9</v>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7112,6 +7162,11 @@
           <t>4609</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7119,314 +7174,11 @@
           <t>4613</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4332</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4338</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4350</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4398</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4399</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4062.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4062.xlsx
@@ -6766,7 +6766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6809,7 +6809,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4332</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -6825,11 +6825,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4338</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -6843,22 +6843,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
@@ -6869,11 +6861,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4345</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -6887,7 +6879,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4350</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -6903,22 +6895,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>11</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
@@ -6929,11 +6913,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4398</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -6947,7 +6931,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -6963,7 +6947,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -6979,7 +6963,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4402</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6997,10 +6981,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -7013,7 +6999,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4410</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -7029,7 +7015,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -7047,7 +7033,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -7063,12 +7049,10 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -7081,27 +7065,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.24%</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7111,45 +7083,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.37%</t>
-        </is>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7159,26 +7117,950 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.97%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4128</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>11</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4133</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>11</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>11</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.68%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>11</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>11</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>11</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>11</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>4.24%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
